--- a/storage/data/27-2-24-import-contract-rineos.xlsx
+++ b/storage/data/27-2-24-import-contract-rineos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtandjung/Projects/Laravel/rineos/storage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444DFAE5-8319-7746-A053-D2105FC39EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA1B1B-615F-684B-8730-4A96F5DC8098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="2980" windowWidth="32000" windowHeight="17500" xr2:uid="{E72164B6-E7B9-354B-9EFA-A05EF2F5DF01}"/>
+    <workbookView xWindow="1920" yWindow="2700" windowWidth="32000" windowHeight="17500" xr2:uid="{E72164B6-E7B9-354B-9EFA-A05EF2F5DF01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="510">
   <si>
     <t>nama</t>
   </si>
@@ -831,6 +831,741 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>start_date_formated</t>
+  </si>
+  <si>
+    <t>end_date_formated</t>
+  </si>
+  <si>
+    <t>09 January 2021</t>
+  </si>
+  <si>
+    <t>08 April 2021</t>
+  </si>
+  <si>
+    <t>07 February 2018</t>
+  </si>
+  <si>
+    <t>06 May 2018</t>
+  </si>
+  <si>
+    <t>16 January 2018</t>
+  </si>
+  <si>
+    <t>15 April 2018</t>
+  </si>
+  <si>
+    <t>13 December 2021</t>
+  </si>
+  <si>
+    <t>12 March 2022</t>
+  </si>
+  <si>
+    <t>13 September 2021</t>
+  </si>
+  <si>
+    <t>12 December 2021</t>
+  </si>
+  <si>
+    <t>13 June 2021</t>
+  </si>
+  <si>
+    <t>12 September 2021</t>
+  </si>
+  <si>
+    <t>16 April 2022</t>
+  </si>
+  <si>
+    <t>15 July 2022</t>
+  </si>
+  <si>
+    <t>10 November 2020</t>
+  </si>
+  <si>
+    <t>09 February 2021</t>
+  </si>
+  <si>
+    <t>23 June 2020</t>
+  </si>
+  <si>
+    <t>22 December 2020</t>
+  </si>
+  <si>
+    <t>17 January 2022</t>
+  </si>
+  <si>
+    <t>17 October 2021</t>
+  </si>
+  <si>
+    <t>16 January 2022</t>
+  </si>
+  <si>
+    <t>17 April 2021</t>
+  </si>
+  <si>
+    <t>16 October 2021</t>
+  </si>
+  <si>
+    <t>01 October 2018</t>
+  </si>
+  <si>
+    <t>31 December 2018</t>
+  </si>
+  <si>
+    <t>12 March 2023</t>
+  </si>
+  <si>
+    <t>11 September 2023</t>
+  </si>
+  <si>
+    <t>14 October 2021</t>
+  </si>
+  <si>
+    <t>13 October 2022</t>
+  </si>
+  <si>
+    <t>14 April 2021</t>
+  </si>
+  <si>
+    <t>13 October 2021</t>
+  </si>
+  <si>
+    <t>14 January 2021</t>
+  </si>
+  <si>
+    <t>13 April 2021</t>
+  </si>
+  <si>
+    <t>14 July 2020</t>
+  </si>
+  <si>
+    <t>13 January 2021</t>
+  </si>
+  <si>
+    <t>14 April 2020</t>
+  </si>
+  <si>
+    <t>13 July 2020</t>
+  </si>
+  <si>
+    <t>14 January 2020</t>
+  </si>
+  <si>
+    <t>13 April 2020</t>
+  </si>
+  <si>
+    <t>14 October 2019</t>
+  </si>
+  <si>
+    <t>13 January 2020</t>
+  </si>
+  <si>
+    <t>14 October 2018</t>
+  </si>
+  <si>
+    <t>13 October 2019</t>
+  </si>
+  <si>
+    <t>14 November 2017</t>
+  </si>
+  <si>
+    <t>13 February 2018</t>
+  </si>
+  <si>
+    <t>26 June 2019</t>
+  </si>
+  <si>
+    <t>25 September 2019</t>
+  </si>
+  <si>
+    <t>14 January 2022</t>
+  </si>
+  <si>
+    <t>13 April 2022</t>
+  </si>
+  <si>
+    <t>13 January 2022</t>
+  </si>
+  <si>
+    <t>12 January 2022</t>
+  </si>
+  <si>
+    <t>11 July 2022</t>
+  </si>
+  <si>
+    <t>05 November 2021</t>
+  </si>
+  <si>
+    <t>04 May 2022</t>
+  </si>
+  <si>
+    <t>16 March 2022</t>
+  </si>
+  <si>
+    <t>15 June 2022</t>
+  </si>
+  <si>
+    <t>16 September 2021</t>
+  </si>
+  <si>
+    <t>15 March 2022</t>
+  </si>
+  <si>
+    <t>25 April 2018</t>
+  </si>
+  <si>
+    <t>23 April 2019</t>
+  </si>
+  <si>
+    <t>25 January 2018</t>
+  </si>
+  <si>
+    <t>24 April 2018</t>
+  </si>
+  <si>
+    <t>25 October 2017</t>
+  </si>
+  <si>
+    <t>24 January 2018</t>
+  </si>
+  <si>
+    <t>22 May 2022</t>
+  </si>
+  <si>
+    <t>21 November 2022</t>
+  </si>
+  <si>
+    <t>03 November 2020</t>
+  </si>
+  <si>
+    <t>02 February 2021</t>
+  </si>
+  <si>
+    <t>25 June 2020</t>
+  </si>
+  <si>
+    <t>24 December 2020</t>
+  </si>
+  <si>
+    <t>08 October 2018</t>
+  </si>
+  <si>
+    <t>07 October 2019</t>
+  </si>
+  <si>
+    <t>08 November 2017</t>
+  </si>
+  <si>
+    <t>12 October 2021</t>
+  </si>
+  <si>
+    <t>30 October 2018</t>
+  </si>
+  <si>
+    <t>29 April 2019</t>
+  </si>
+  <si>
+    <t>20 October 2020</t>
+  </si>
+  <si>
+    <t>19 January 2021</t>
+  </si>
+  <si>
+    <t>28 April 2020</t>
+  </si>
+  <si>
+    <t>27 October 2020</t>
+  </si>
+  <si>
+    <t>28 January 2020</t>
+  </si>
+  <si>
+    <t>27 April 2020</t>
+  </si>
+  <si>
+    <t>28 October 2019</t>
+  </si>
+  <si>
+    <t>27 January 2020</t>
+  </si>
+  <si>
+    <t>28 June 2019</t>
+  </si>
+  <si>
+    <t>27 October 2019</t>
+  </si>
+  <si>
+    <t>03 November 2018</t>
+  </si>
+  <si>
+    <t>02 May 2019</t>
+  </si>
+  <si>
+    <t>06 January 2022</t>
+  </si>
+  <si>
+    <t>05 April 2022</t>
+  </si>
+  <si>
+    <t>06 October 2021</t>
+  </si>
+  <si>
+    <t>05 January 2022</t>
+  </si>
+  <si>
+    <t>02 July 2021</t>
+  </si>
+  <si>
+    <t>01 October 2021</t>
+  </si>
+  <si>
+    <t>11 February 2022</t>
+  </si>
+  <si>
+    <t>10 May 2022</t>
+  </si>
+  <si>
+    <t>01 September 2018</t>
+  </si>
+  <si>
+    <t>30 November 2018</t>
+  </si>
+  <si>
+    <t>03 July 2020</t>
+  </si>
+  <si>
+    <t>02 November 2020</t>
+  </si>
+  <si>
+    <t>15 April 2022</t>
+  </si>
+  <si>
+    <t>15 January 2022</t>
+  </si>
+  <si>
+    <t>16 July 2021</t>
+  </si>
+  <si>
+    <t>15 October 2021</t>
+  </si>
+  <si>
+    <t>21 June 2022</t>
+  </si>
+  <si>
+    <t>20 December 2022</t>
+  </si>
+  <si>
+    <t>21 March 2022</t>
+  </si>
+  <si>
+    <t>20 June 2022</t>
+  </si>
+  <si>
+    <t>21 December 2021</t>
+  </si>
+  <si>
+    <t>20 March 2022</t>
+  </si>
+  <si>
+    <t>21 September 2021</t>
+  </si>
+  <si>
+    <t>20 December 2021</t>
+  </si>
+  <si>
+    <t>21 June 2021</t>
+  </si>
+  <si>
+    <t>20 September 2021</t>
+  </si>
+  <si>
+    <t>29 December 2022</t>
+  </si>
+  <si>
+    <t>28 June 2023</t>
+  </si>
+  <si>
+    <t>08 May 2021</t>
+  </si>
+  <si>
+    <t>15 November 2020</t>
+  </si>
+  <si>
+    <t>14 February 2021</t>
+  </si>
+  <si>
+    <t>22 June 2022</t>
+  </si>
+  <si>
+    <t>21 December 2022</t>
+  </si>
+  <si>
+    <t>05 February 2021</t>
+  </si>
+  <si>
+    <t>04 May 2021</t>
+  </si>
+  <si>
+    <t>29 January 2020</t>
+  </si>
+  <si>
+    <t>28 July 2020</t>
+  </si>
+  <si>
+    <t>05 August 2020</t>
+  </si>
+  <si>
+    <t>04 February 2021</t>
+  </si>
+  <si>
+    <t>06 December 2023</t>
+  </si>
+  <si>
+    <t>05 June 2024</t>
+  </si>
+  <si>
+    <t>06 March 2023</t>
+  </si>
+  <si>
+    <t>05 June 2023</t>
+  </si>
+  <si>
+    <t>04 October 2022</t>
+  </si>
+  <si>
+    <t>03 April 2022</t>
+  </si>
+  <si>
+    <t>04 April 2022</t>
+  </si>
+  <si>
+    <t>03 October 2022</t>
+  </si>
+  <si>
+    <t>04 October 2021</t>
+  </si>
+  <si>
+    <t>11 March 2021</t>
+  </si>
+  <si>
+    <t>10 September 2021</t>
+  </si>
+  <si>
+    <t>11 December 2020</t>
+  </si>
+  <si>
+    <t>10 March 2021</t>
+  </si>
+  <si>
+    <t>24 July 2020</t>
+  </si>
+  <si>
+    <t>23 October 2020</t>
+  </si>
+  <si>
+    <t>24 January 2020</t>
+  </si>
+  <si>
+    <t>23 July 2020</t>
+  </si>
+  <si>
+    <t>06 November 2021</t>
+  </si>
+  <si>
+    <t>05 May 2022</t>
+  </si>
+  <si>
+    <t>06 February 2021</t>
+  </si>
+  <si>
+    <t>05 May 2021</t>
+  </si>
+  <si>
+    <t>06 November 2020</t>
+  </si>
+  <si>
+    <t>06 May 2020</t>
+  </si>
+  <si>
+    <t>05 November 2020</t>
+  </si>
+  <si>
+    <t>17 January 2020</t>
+  </si>
+  <si>
+    <t>16 April 2020</t>
+  </si>
+  <si>
+    <t>17 October 2019</t>
+  </si>
+  <si>
+    <t>16 January 2020</t>
+  </si>
+  <si>
+    <t>17 June 2019</t>
+  </si>
+  <si>
+    <t>16 October 2019</t>
+  </si>
+  <si>
+    <t>29 April 2022</t>
+  </si>
+  <si>
+    <t>28 October 2022</t>
+  </si>
+  <si>
+    <t>03 November 2021</t>
+  </si>
+  <si>
+    <t>10 November 2017</t>
+  </si>
+  <si>
+    <t>09 February 2018</t>
+  </si>
+  <si>
+    <t>19 July 2022</t>
+  </si>
+  <si>
+    <t>18 January 2023</t>
+  </si>
+  <si>
+    <t>18 March 2021</t>
+  </si>
+  <si>
+    <t>17 September 2021</t>
+  </si>
+  <si>
+    <t>18 December 2020</t>
+  </si>
+  <si>
+    <t>17 March 2021</t>
+  </si>
+  <si>
+    <t>25 May 2020</t>
+  </si>
+  <si>
+    <t>24 November 2020</t>
+  </si>
+  <si>
+    <t>25 February 2020</t>
+  </si>
+  <si>
+    <t>24 May 2020</t>
+  </si>
+  <si>
+    <t>10 April 2022</t>
+  </si>
+  <si>
+    <t>09 July 2022</t>
+  </si>
+  <si>
+    <t>10 January 2022</t>
+  </si>
+  <si>
+    <t>09 April 2022</t>
+  </si>
+  <si>
+    <t>10 October 2021</t>
+  </si>
+  <si>
+    <t>09 January 2022</t>
+  </si>
+  <si>
+    <t>10 April 2021</t>
+  </si>
+  <si>
+    <t>09 October 2021</t>
+  </si>
+  <si>
+    <t>25 February 2021</t>
+  </si>
+  <si>
+    <t>24 August 2021</t>
+  </si>
+  <si>
+    <t>25 August 2020</t>
+  </si>
+  <si>
+    <t>24 February 2021</t>
+  </si>
+  <si>
+    <t>24 August 2020</t>
+  </si>
+  <si>
+    <t>27 September 2019</t>
+  </si>
+  <si>
+    <t>26 March 2020</t>
+  </si>
+  <si>
+    <t>10 May 2020</t>
+  </si>
+  <si>
+    <t>09 June 2020</t>
+  </si>
+  <si>
+    <t>10 February 2020</t>
+  </si>
+  <si>
+    <t>09 May 2020</t>
+  </si>
+  <si>
+    <t>29 September 2022</t>
+  </si>
+  <si>
+    <t>15 May 2022</t>
+  </si>
+  <si>
+    <t>16 November 2021</t>
+  </si>
+  <si>
+    <t>27 March 2019</t>
+  </si>
+  <si>
+    <t>12 April 2022</t>
+  </si>
+  <si>
+    <t>13 July 2021</t>
+  </si>
+  <si>
+    <t>26 September 2020</t>
+  </si>
+  <si>
+    <t>25 December 2020</t>
+  </si>
+  <si>
+    <t>12 June 2020</t>
+  </si>
+  <si>
+    <t>11 September 2020</t>
+  </si>
+  <si>
+    <t>08 November 2019</t>
+  </si>
+  <si>
+    <t>07 March 2020</t>
+  </si>
+  <si>
+    <t>05 June 2021</t>
+  </si>
+  <si>
+    <t>04 December 2021</t>
+  </si>
+  <si>
+    <t>07 March 2021</t>
+  </si>
+  <si>
+    <t>06 June 2021</t>
+  </si>
+  <si>
+    <t>07 December 2020</t>
+  </si>
+  <si>
+    <t>06 March 2021</t>
+  </si>
+  <si>
+    <t>07 June 2020</t>
+  </si>
+  <si>
+    <t>06 December 2020</t>
+  </si>
+  <si>
+    <t>06 January 2020</t>
+  </si>
+  <si>
+    <t>05 April 2020</t>
+  </si>
+  <si>
+    <t>06 September 2019</t>
+  </si>
+  <si>
+    <t>05 January 2020</t>
+  </si>
+  <si>
+    <t>06 May 2019</t>
+  </si>
+  <si>
+    <t>05 September 2019</t>
+  </si>
+  <si>
+    <t>18 August 2020</t>
+  </si>
+  <si>
+    <t>17 February 2021</t>
+  </si>
+  <si>
+    <t>18 October 2021</t>
+  </si>
+  <si>
+    <t>17 April 2022</t>
+  </si>
+  <si>
+    <t>15 July 2021</t>
+  </si>
+  <si>
+    <t>10 July 2021</t>
+  </si>
+  <si>
+    <t>26 November 2018</t>
+  </si>
+  <si>
+    <t>25 November 2019</t>
+  </si>
+  <si>
+    <t>01 November 2021</t>
+  </si>
+  <si>
+    <t>01 May 2022</t>
+  </si>
+  <si>
+    <t>16 November 2022</t>
+  </si>
+  <si>
+    <t>15 February 2023</t>
+  </si>
+  <si>
+    <t>14 July 2022</t>
+  </si>
+  <si>
+    <t>13 January 2024</t>
+  </si>
+  <si>
+    <t>13 July 2022</t>
+  </si>
+  <si>
+    <t>17 November 2021</t>
+  </si>
+  <si>
+    <t>16 May 2022</t>
+  </si>
+  <si>
+    <t>26 August 2019</t>
+  </si>
+  <si>
+    <t>13 November 2020</t>
+  </si>
+  <si>
+    <t>09 April 2023</t>
+  </si>
+  <si>
+    <t>08 October 2023</t>
+  </si>
+  <si>
+    <t>14 December 2022</t>
+  </si>
+  <si>
+    <t>15 December 2021</t>
+  </si>
+  <si>
+    <t>14 June 2022</t>
+  </si>
+  <si>
+    <t>15 June 2021</t>
+  </si>
+  <si>
+    <t>14 December 2021</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682DC4BD-1BB2-E04D-A3C6-464C165CE3DD}">
   <dimension ref="A1:AA154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1977,7 @@
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="28" style="13" customWidth="1"/>
     <col min="10" max="11" width="21.5" style="7" customWidth="1"/>
     <col min="12" max="12" width="33.5" style="13" customWidth="1"/>
@@ -1277,8 +2012,12 @@
       <c r="G1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="11"/>
+      <c r="H1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="11"/>
@@ -1320,8 +2059,12 @@
       <c r="G2" s="9">
         <v>44294</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="12"/>
@@ -1363,8 +2106,12 @@
       <c r="G3" s="9">
         <v>43226</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="12"/>
@@ -1406,8 +2153,12 @@
       <c r="G4" s="9">
         <v>43205</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="12"/>
@@ -1449,8 +2200,12 @@
       <c r="G5" s="9">
         <v>44632</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="12"/>
@@ -1492,8 +2247,12 @@
       <c r="G6" s="9">
         <v>44542</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="12"/>
@@ -1535,8 +2294,12 @@
       <c r="G7" s="9">
         <v>44451</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="12"/>
@@ -1578,8 +2341,12 @@
       <c r="G8" s="9">
         <v>44757</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="12"/>
@@ -1621,8 +2388,12 @@
       <c r="G9" s="9">
         <v>44236</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="12"/>
@@ -1664,8 +2435,12 @@
       <c r="G10" s="9">
         <v>44187</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="12"/>
@@ -1707,8 +2482,12 @@
       <c r="G11" s="9">
         <v>44667</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="12"/>
@@ -1750,8 +2529,12 @@
       <c r="G12" s="9">
         <v>44577</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="12"/>
@@ -1793,8 +2576,12 @@
       <c r="G13" s="9">
         <v>44485</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="12"/>
@@ -1836,8 +2623,12 @@
       <c r="G14" s="9">
         <v>43465</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="12"/>
@@ -1879,8 +2670,12 @@
       <c r="G15" s="9">
         <v>43465</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="12"/>
@@ -1922,8 +2717,12 @@
       <c r="G16" s="9">
         <v>45180</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="12"/>
@@ -1965,8 +2764,12 @@
       <c r="G17" s="9">
         <v>44847</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="12"/>
+      <c r="H17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="12"/>
@@ -2008,8 +2811,12 @@
       <c r="G18" s="9">
         <v>44482</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="12"/>
@@ -2051,8 +2858,12 @@
       <c r="G19" s="9">
         <v>44299</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="12"/>
+      <c r="H19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="12"/>
@@ -2094,8 +2905,12 @@
       <c r="G20" s="9">
         <v>44209</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="12"/>
+      <c r="H20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="12"/>
@@ -2137,8 +2952,12 @@
       <c r="G21" s="9">
         <v>44025</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="12"/>
@@ -2180,8 +2999,12 @@
       <c r="G22" s="9">
         <v>43934</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="12"/>
@@ -2223,8 +3046,12 @@
       <c r="G23" s="9">
         <v>43843</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="12"/>
+      <c r="H23" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="12"/>
@@ -2266,8 +3093,12 @@
       <c r="G24" s="9">
         <v>43751</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="12"/>
+      <c r="H24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="12"/>
@@ -2309,8 +3140,12 @@
       <c r="G25" s="9">
         <v>43144</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="12"/>
+      <c r="H25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="12"/>
@@ -2352,8 +3187,12 @@
       <c r="G26" s="9">
         <v>43733</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="12"/>
+      <c r="H26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="12"/>
@@ -2395,8 +3234,12 @@
       <c r="G27" s="9">
         <v>44664</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="12"/>
+      <c r="H27" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="12"/>
@@ -2438,8 +3281,12 @@
       <c r="G28" s="9">
         <v>44574</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="12"/>
+      <c r="H28" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>316</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="12"/>
@@ -2481,8 +3328,12 @@
       <c r="G29" s="9">
         <v>44482</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="12"/>
+      <c r="H29" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="12"/>
@@ -2524,8 +3375,12 @@
       <c r="G30" s="9">
         <v>44753</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="12"/>
+      <c r="H30" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="12"/>
@@ -2567,8 +3422,12 @@
       <c r="G31" s="9">
         <v>44685</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="12"/>
+      <c r="H31" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>320</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="12"/>
@@ -2610,8 +3469,12 @@
       <c r="G32" s="9">
         <v>44727</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="12"/>
+      <c r="H32" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>322</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="12"/>
@@ -2653,8 +3516,12 @@
       <c r="G33" s="9">
         <v>44635</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="12"/>
+      <c r="H33" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="12"/>
@@ -2696,8 +3563,12 @@
       <c r="G34" s="9">
         <v>43578</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="12"/>
+      <c r="H34" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="12"/>
@@ -2739,8 +3610,12 @@
       <c r="G35" s="9">
         <v>43214</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="12"/>
+      <c r="H35" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="12"/>
@@ -2782,8 +3657,12 @@
       <c r="G36" s="9">
         <v>43124</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="12"/>
+      <c r="H36" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="12"/>
@@ -2825,8 +3704,12 @@
       <c r="G37" s="9">
         <v>44886</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="12"/>
+      <c r="H37" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="12"/>
@@ -2868,8 +3751,12 @@
       <c r="G38" s="9">
         <v>44229</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="12"/>
+      <c r="H38" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="12"/>
@@ -2911,8 +3798,12 @@
       <c r="G39" s="9">
         <v>44189</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="12"/>
+      <c r="H39" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="12"/>
@@ -2954,8 +3845,12 @@
       <c r="G40" s="9">
         <v>43745</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="12"/>
+      <c r="H40" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="12"/>
@@ -2997,8 +3892,12 @@
       <c r="G41" s="9">
         <v>43138</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="12"/>
+      <c r="H41" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="12"/>
@@ -3040,8 +3939,12 @@
       <c r="G42" s="9">
         <v>44481</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="12"/>
+      <c r="H42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>340</v>
+      </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="12"/>
@@ -3083,8 +3986,12 @@
       <c r="G43" s="9">
         <v>43584</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="12"/>
+      <c r="H43" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="12"/>
@@ -3126,8 +4033,12 @@
       <c r="G44" s="9">
         <v>44215</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="12"/>
+      <c r="H44" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>344</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="12"/>
@@ -3169,8 +4080,12 @@
       <c r="G45" s="9">
         <v>44131</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="12"/>
+      <c r="H45" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="12"/>
@@ -3212,8 +4127,12 @@
       <c r="G46" s="9">
         <v>43948</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="12"/>
+      <c r="H46" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="12"/>
@@ -3255,8 +4174,12 @@
       <c r="G47" s="9">
         <v>43857</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="12"/>
+      <c r="H47" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>350</v>
+      </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="12"/>
@@ -3298,8 +4221,12 @@
       <c r="G48" s="9">
         <v>43765</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="12"/>
+      <c r="H48" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="12"/>
@@ -3341,8 +4268,12 @@
       <c r="G49" s="9">
         <v>43587</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="12"/>
+      <c r="H49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="12"/>
@@ -3384,8 +4315,12 @@
       <c r="G50" s="9">
         <v>44656</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="12"/>
+      <c r="H50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="12"/>
@@ -3427,8 +4362,12 @@
       <c r="G51" s="9">
         <v>44566</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="12"/>
+      <c r="H51" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="12"/>
@@ -3470,8 +4409,12 @@
       <c r="G52" s="9">
         <v>44470</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="12"/>
+      <c r="H52" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="12"/>
@@ -3513,8 +4456,12 @@
       <c r="G53" s="9">
         <v>44691</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="12"/>
+      <c r="H53" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="12"/>
@@ -3556,8 +4503,12 @@
       <c r="G54" s="9">
         <v>43434</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="12"/>
+      <c r="H54" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="12"/>
@@ -3599,8 +4550,12 @@
       <c r="G55" s="9">
         <v>44137</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="12"/>
+      <c r="H55" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="12"/>
@@ -3642,8 +4597,12 @@
       <c r="G56" s="9">
         <v>44666</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="12"/>
+      <c r="H56" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="12"/>
@@ -3685,8 +4644,12 @@
       <c r="G57" s="9">
         <v>44576</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="12"/>
+      <c r="H57" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="12"/>
@@ -3728,8 +4691,12 @@
       <c r="G58" s="9">
         <v>44484</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="12"/>
+      <c r="H58" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>370</v>
+      </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="12"/>
@@ -3771,8 +4738,12 @@
       <c r="G59" s="9">
         <v>44915</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="12"/>
+      <c r="H59" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="12"/>
@@ -3814,8 +4785,12 @@
       <c r="G60" s="9">
         <v>44732</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="12"/>
+      <c r="H60" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="12"/>
@@ -3857,8 +4832,12 @@
       <c r="G61" s="9">
         <v>44640</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="12"/>
+      <c r="H61" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="12"/>
@@ -3900,8 +4879,12 @@
       <c r="G62" s="9">
         <v>44550</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="12"/>
+      <c r="H62" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="12"/>
@@ -3943,8 +4926,12 @@
       <c r="G63" s="9">
         <v>44459</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="12"/>
+      <c r="H63" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>380</v>
+      </c>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="12"/>
@@ -3986,8 +4973,12 @@
       <c r="G64" s="9">
         <v>45105</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="12"/>
+      <c r="H64" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>382</v>
+      </c>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="12"/>
@@ -4029,8 +5020,12 @@
       <c r="G65" s="9">
         <v>44324</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="12"/>
+      <c r="H65" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="12"/>
@@ -4072,8 +5067,12 @@
       <c r="G66" s="9">
         <v>44324</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="12"/>
+      <c r="H66" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="12"/>
@@ -4115,8 +5114,12 @@
       <c r="G67" s="9">
         <v>44241</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="12"/>
+      <c r="H67" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="12"/>
@@ -4158,8 +5161,12 @@
       <c r="G68" s="9">
         <v>44137</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="12"/>
+      <c r="H68" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="12"/>
@@ -4201,8 +5208,12 @@
       <c r="G69" s="9">
         <v>44916</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="12"/>
+      <c r="H69" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="12"/>
@@ -4244,8 +5255,12 @@
       <c r="G70" s="9">
         <v>44320</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="12"/>
+      <c r="H70" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>389</v>
+      </c>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="12"/>
@@ -4287,8 +5302,12 @@
       <c r="G71" s="9">
         <v>44040</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="12"/>
+      <c r="H71" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="12"/>
@@ -4330,8 +5349,12 @@
       <c r="G72" s="9">
         <v>44886</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="12"/>
+      <c r="H72" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="12"/>
@@ -4373,8 +5396,12 @@
       <c r="G73" s="9">
         <v>44324</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="12"/>
+      <c r="H73" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="12"/>
@@ -4416,8 +5443,12 @@
       <c r="G74" s="9">
         <v>44324</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="12"/>
+      <c r="H74" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="12"/>
@@ -4459,8 +5490,12 @@
       <c r="G75" s="9">
         <v>44231</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="12"/>
+      <c r="H75" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="12"/>
@@ -4502,8 +5537,12 @@
       <c r="G76" s="9">
         <v>45448</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="12"/>
+      <c r="H76" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="12"/>
@@ -4545,8 +5584,12 @@
       <c r="G77" s="9">
         <v>45082</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="12"/>
+      <c r="H77" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="12"/>
@@ -4588,8 +5631,12 @@
       <c r="G78" s="9">
         <v>45082</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="12"/>
+      <c r="H78" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="12"/>
@@ -4631,8 +5678,12 @@
       <c r="G79" s="9">
         <v>44654</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="12"/>
+      <c r="H79" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="12"/>
@@ -4674,8 +5725,12 @@
       <c r="G80" s="9">
         <v>44837</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="12"/>
+      <c r="H80" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="12"/>
@@ -4717,8 +5772,12 @@
       <c r="G81" s="9">
         <v>44654</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="12"/>
+      <c r="H81" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="12"/>
@@ -4760,8 +5819,12 @@
       <c r="G82" s="9">
         <v>44449</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="12"/>
+      <c r="H82" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="12"/>
@@ -4803,8 +5866,12 @@
       <c r="G83" s="9">
         <v>44265</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="12"/>
+      <c r="H83" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="12"/>
@@ -4846,8 +5913,12 @@
       <c r="G84" s="9">
         <v>44127</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="12"/>
+      <c r="H84" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="12"/>
@@ -4889,8 +5960,12 @@
       <c r="G85" s="9">
         <v>44035</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="12"/>
+      <c r="H85" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="12"/>
@@ -4932,8 +6007,12 @@
       <c r="G86" s="9">
         <v>44686</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="12"/>
+      <c r="H86" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>412</v>
+      </c>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="12"/>
@@ -4975,8 +6054,12 @@
       <c r="G87" s="9">
         <v>44321</v>
       </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="12"/>
+      <c r="H87" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="12"/>
@@ -5018,8 +6101,12 @@
       <c r="G88" s="9">
         <v>44232</v>
       </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="12"/>
+      <c r="H88" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>388</v>
+      </c>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="12"/>
@@ -5061,8 +6148,12 @@
       <c r="G89" s="9">
         <v>44140</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="12"/>
+      <c r="H89" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>417</v>
+      </c>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="12"/>
@@ -5104,8 +6195,12 @@
       <c r="G90" s="9">
         <v>43937</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="12"/>
+      <c r="H90" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="12"/>
@@ -5147,8 +6242,12 @@
       <c r="G91" s="9">
         <v>43846</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="12"/>
+      <c r="H91" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>421</v>
+      </c>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="12"/>
@@ -5190,8 +6289,12 @@
       <c r="G92" s="9">
         <v>43754</v>
       </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="12"/>
+      <c r="H92" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>423</v>
+      </c>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="12"/>
@@ -5233,8 +6336,12 @@
       <c r="G93" s="9">
         <v>44137</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="12"/>
+      <c r="H93" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>366</v>
+      </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="12"/>
@@ -5276,8 +6383,12 @@
       <c r="G94" s="9">
         <v>44862</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="12"/>
+      <c r="H94" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>425</v>
+      </c>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="12"/>
@@ -5319,8 +6430,12 @@
       <c r="G95" s="9">
         <v>44503</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="12"/>
+      <c r="H95" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>426</v>
+      </c>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="12"/>
@@ -5362,8 +6477,12 @@
       <c r="G96" s="9">
         <v>43140</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="12"/>
+      <c r="H96" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>428</v>
+      </c>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="12"/>
@@ -5405,8 +6524,12 @@
       <c r="G97" s="9">
         <v>44944</v>
       </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="12"/>
+      <c r="H97" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>430</v>
+      </c>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="12"/>
@@ -5448,8 +6571,12 @@
       <c r="G98" s="9">
         <v>44837</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="12"/>
+      <c r="H98" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="12"/>
@@ -5491,8 +6618,12 @@
       <c r="G99" s="9">
         <v>44654</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="12"/>
+      <c r="H99" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="12"/>
@@ -5534,8 +6665,12 @@
       <c r="G100" s="9">
         <v>44456</v>
       </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="12"/>
+      <c r="H100" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>432</v>
+      </c>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="12"/>
@@ -5577,8 +6712,12 @@
       <c r="G101" s="9">
         <v>44272</v>
       </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="12"/>
+      <c r="H101" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>434</v>
+      </c>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="12"/>
@@ -5620,8 +6759,12 @@
       <c r="G102" s="9">
         <v>44159</v>
       </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="12"/>
+      <c r="H102" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>436</v>
+      </c>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="12"/>
@@ -5663,8 +6806,12 @@
       <c r="G103" s="9">
         <v>43975</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="12"/>
+      <c r="H103" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>438</v>
+      </c>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="12"/>
@@ -5706,8 +6853,12 @@
       <c r="G104" s="9">
         <v>44751</v>
       </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="12"/>
+      <c r="H104" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="12"/>
@@ -5749,8 +6900,12 @@
       <c r="G105" s="9">
         <v>44660</v>
       </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="12"/>
+      <c r="H105" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="12"/>
@@ -5792,8 +6947,12 @@
       <c r="G106" s="9">
         <v>44570</v>
       </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="12"/>
+      <c r="H106" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="12"/>
@@ -5835,8 +6994,12 @@
       <c r="G107" s="9">
         <v>44478</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="12"/>
+      <c r="H107" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>446</v>
+      </c>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="12"/>
@@ -5878,8 +7041,12 @@
       <c r="G108" s="9">
         <v>44432</v>
       </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="12"/>
+      <c r="H108" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>448</v>
+      </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="12"/>
@@ -5921,8 +7088,12 @@
       <c r="G109" s="9">
         <v>44251</v>
       </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="12"/>
+      <c r="H109" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>450</v>
+      </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="12"/>
@@ -5964,8 +7135,12 @@
       <c r="G110" s="9">
         <v>44067</v>
       </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="12"/>
+      <c r="H110" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="12"/>
@@ -6007,8 +7182,12 @@
       <c r="G111" s="9">
         <v>43916</v>
       </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="12"/>
+      <c r="H111" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>453</v>
+      </c>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="12"/>
@@ -6050,8 +7229,12 @@
       <c r="G112" s="9">
         <v>43991</v>
       </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="12"/>
+      <c r="H112" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>455</v>
+      </c>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="12"/>
@@ -6093,8 +7276,12 @@
       <c r="G113" s="9">
         <v>43960</v>
       </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="12"/>
+      <c r="H113" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>457</v>
+      </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="12"/>
@@ -6136,8 +7323,12 @@
       <c r="G114" s="9">
         <v>44696</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="12"/>
+      <c r="H114" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>459</v>
+      </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="12"/>
@@ -6179,8 +7370,12 @@
       <c r="G115" s="9">
         <v>44696</v>
       </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="12"/>
+      <c r="H115" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>459</v>
+      </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="12"/>
@@ -6222,8 +7417,12 @@
       <c r="G116" s="9">
         <v>43642</v>
       </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="12"/>
+      <c r="H116" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="12"/>
@@ -6265,8 +7464,12 @@
       <c r="G117" s="9">
         <v>44663</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="12"/>
+      <c r="H117" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>462</v>
+      </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="12"/>
@@ -6308,8 +7511,12 @@
       <c r="G118" s="9">
         <v>44571</v>
       </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="12"/>
+      <c r="H118" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="12"/>
@@ -6351,8 +7558,12 @@
       <c r="G119" s="9">
         <v>44190</v>
       </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="12"/>
+      <c r="H119" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>465</v>
+      </c>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="12"/>
@@ -6394,8 +7605,12 @@
       <c r="G120" s="9">
         <v>44085</v>
       </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="12"/>
+      <c r="H120" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>467</v>
+      </c>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="12"/>
@@ -6437,8 +7652,12 @@
       <c r="G121" s="9">
         <v>44067</v>
       </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="12"/>
+      <c r="H121" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="12"/>
@@ -6480,8 +7699,12 @@
       <c r="G122" s="9">
         <v>43897</v>
       </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="12"/>
+      <c r="H122" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>469</v>
+      </c>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="12"/>
@@ -6523,8 +7746,12 @@
       <c r="G123" s="9">
         <v>44837</v>
       </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="12"/>
+      <c r="H123" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="12"/>
@@ -6566,8 +7793,12 @@
       <c r="G124" s="9">
         <v>44654</v>
       </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="12"/>
+      <c r="H124" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="12"/>
@@ -6609,8 +7840,12 @@
       <c r="G125" s="9">
         <v>44654</v>
       </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="12"/>
+      <c r="H125" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="12"/>
@@ -6652,8 +7887,12 @@
       <c r="G126" s="9">
         <v>44534</v>
       </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="12"/>
+      <c r="H126" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>471</v>
+      </c>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="12"/>
@@ -6695,8 +7934,12 @@
       <c r="G127" s="9">
         <v>44353</v>
       </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="12"/>
+      <c r="H127" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="12"/>
@@ -6738,8 +7981,12 @@
       <c r="G128" s="9">
         <v>44261</v>
       </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="12"/>
+      <c r="H128" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>475</v>
+      </c>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="12"/>
@@ -6781,8 +8028,12 @@
       <c r="G129" s="9">
         <v>44171</v>
       </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="12"/>
+      <c r="H129" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="12"/>
@@ -6824,8 +8075,12 @@
       <c r="G130" s="9">
         <v>43926</v>
       </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="12"/>
+      <c r="H130" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>479</v>
+      </c>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="12"/>
@@ -6867,8 +8122,12 @@
       <c r="G131" s="9">
         <v>43835</v>
       </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="12"/>
+      <c r="H131" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>481</v>
+      </c>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="L131" s="12"/>
@@ -6910,8 +8169,12 @@
       <c r="G132" s="9">
         <v>43713</v>
       </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="12"/>
+      <c r="H132" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>483</v>
+      </c>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
       <c r="L132" s="12"/>
@@ -6953,8 +8216,12 @@
       <c r="G133" s="9">
         <v>44244</v>
       </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="12"/>
+      <c r="H133" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>485</v>
+      </c>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
       <c r="L133" s="12"/>
@@ -6996,8 +8263,12 @@
       <c r="G134" s="9">
         <v>44668</v>
       </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="12"/>
+      <c r="H134" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>487</v>
+      </c>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
       <c r="L134" s="12"/>
@@ -7039,8 +8310,12 @@
       <c r="G135" s="9">
         <v>44470</v>
       </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="12"/>
+      <c r="H135" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="L135" s="12"/>
@@ -7082,8 +8357,12 @@
       <c r="G136" s="9">
         <v>43465</v>
       </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="12"/>
+      <c r="H136" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
       <c r="L136" s="12"/>
@@ -7125,8 +8404,12 @@
       <c r="G137" s="9">
         <v>44575</v>
       </c>
-      <c r="H137" s="3"/>
-      <c r="I137" s="12"/>
+      <c r="H137" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="12"/>
@@ -7168,8 +8451,12 @@
       <c r="G138" s="9">
         <v>44751</v>
       </c>
-      <c r="H138" s="3"/>
-      <c r="I138" s="12"/>
+      <c r="H138" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="12"/>
@@ -7211,8 +8498,12 @@
       <c r="G139" s="9">
         <v>44570</v>
       </c>
-      <c r="H139" s="3"/>
-      <c r="I139" s="12"/>
+      <c r="H139" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="12"/>
@@ -7254,8 +8545,12 @@
       <c r="G140" s="9">
         <v>43205</v>
       </c>
-      <c r="H140" s="3"/>
-      <c r="I140" s="12"/>
+      <c r="H140" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="12"/>
@@ -7297,8 +8592,12 @@
       <c r="G141" s="9">
         <v>43794</v>
       </c>
-      <c r="H141" s="3"/>
-      <c r="I141" s="12"/>
+      <c r="H141" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>491</v>
+      </c>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="12"/>
@@ -7340,8 +8639,12 @@
       <c r="G142" s="9">
         <v>44682</v>
       </c>
-      <c r="H142" s="3"/>
-      <c r="I142" s="12"/>
+      <c r="H142" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
       <c r="L142" s="12"/>
@@ -7383,8 +8686,12 @@
       <c r="G143" s="9">
         <v>44972</v>
       </c>
-      <c r="H143" s="3"/>
-      <c r="I143" s="12"/>
+      <c r="H143" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>495</v>
+      </c>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="L143" s="12"/>
@@ -7426,8 +8733,12 @@
       <c r="G144" s="9">
         <v>44972</v>
       </c>
-      <c r="H144" s="3"/>
-      <c r="I144" s="12"/>
+      <c r="H144" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>495</v>
+      </c>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="12"/>
@@ -7469,8 +8780,12 @@
       <c r="G145" s="9">
         <v>45304</v>
       </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="12"/>
+      <c r="H145" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>497</v>
+      </c>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="12"/>
@@ -7512,8 +8827,12 @@
       <c r="G146" s="9">
         <v>44755</v>
       </c>
-      <c r="H146" s="3"/>
-      <c r="I146" s="12"/>
+      <c r="H146" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>498</v>
+      </c>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="12"/>
@@ -7555,8 +8874,12 @@
       <c r="G147" s="9">
         <v>44697</v>
       </c>
-      <c r="H147" s="3"/>
-      <c r="I147" s="12"/>
+      <c r="H147" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>500</v>
+      </c>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="12"/>
@@ -7598,8 +8921,12 @@
       <c r="G148" s="9">
         <v>44067</v>
       </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="12"/>
+      <c r="H148" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="12"/>
@@ -7641,8 +8968,12 @@
       <c r="G149" s="9">
         <v>43886</v>
       </c>
-      <c r="H149" s="3"/>
-      <c r="I149" s="12"/>
+      <c r="H149" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>437</v>
+      </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="12"/>
@@ -7684,8 +9015,12 @@
       <c r="G150" s="9">
         <v>44148</v>
       </c>
-      <c r="H150" s="3"/>
-      <c r="I150" s="12"/>
+      <c r="H150" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>502</v>
+      </c>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="12"/>
@@ -7727,8 +9062,12 @@
       <c r="G151" s="9">
         <v>45207</v>
       </c>
-      <c r="H151" s="3"/>
-      <c r="I151" s="12"/>
+      <c r="H151" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>504</v>
+      </c>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="12"/>
@@ -7770,8 +9109,12 @@
       <c r="G152" s="9">
         <v>44909</v>
       </c>
-      <c r="H152" s="3"/>
-      <c r="I152" s="12"/>
+      <c r="H152" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>505</v>
+      </c>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="12"/>
@@ -7813,8 +9156,12 @@
       <c r="G153" s="9">
         <v>44726</v>
       </c>
-      <c r="H153" s="3"/>
-      <c r="I153" s="12"/>
+      <c r="H153" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>507</v>
+      </c>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="12"/>
@@ -7856,8 +9203,12 @@
       <c r="G154" s="9">
         <v>44544</v>
       </c>
-      <c r="H154" s="3"/>
-      <c r="I154" s="12"/>
+      <c r="H154" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>509</v>
+      </c>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="12"/>
